--- a/data/trans_camb/P15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,11</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 4,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 2,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 3,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 4,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 3,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 6,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 3,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 2,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,61; 4,65</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,76%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 101,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,88; 64,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,94; 83,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,42; 86,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,02; 71,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,65; 124,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,55; 78,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 51,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,12; 89,39</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 2,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; -1,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; -0,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 1,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 2,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; -0,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 0,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,78%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,51; 33,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,34; -15,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,14; -9,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,05; 92,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,34; 29,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,09; 46,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 45,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,9; -7,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,63; 2,08</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 1,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 1,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 0,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 4,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 3,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 2,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 1,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 1,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 0,42</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,09%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,21; 19,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,08; 23,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,09; 12,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,01; 145,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,82; 106,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,36; 60,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,55; 37,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,0; 27,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,65; 9,01</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 2,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; -0,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; -0,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 3,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 1,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 2,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 0,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 0,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,84; 36,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,21; -3,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,22; -1,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,84; 66,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,47; 26,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 41,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,83; 42,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,85; 4,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,9; 10,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>3,27</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,64</t>
+          <t>-0,91; 4,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,46</t>
+          <t>2,38; 6,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,65</t>
+          <t>1,73; 4,84</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,85%</t>
+          <t>74,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,76%</t>
+          <t>56,56%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 83,63</t>
+          <t>-15,65; 90,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,65; 124,73</t>
+          <t>34,3; 128,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,12; 89,39</t>
+          <t>26,35; 93,41</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; -0,72</t>
+          <t>-5,11; -1,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,79</t>
+          <t>-1,76; 1,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,16</t>
+          <t>-2,9; -0,17</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,37%</t>
+          <t>-33,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,78%</t>
+          <t>-22,92%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -9,3</t>
+          <t>-53,34; -13,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 46,28</t>
+          <t>-31,96; 35,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 2,08</t>
+          <t>-41,98; -3,93</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,65</t>
+          <t>-5,33; 0,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,03</t>
+          <t>-2,88; 2,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,42</t>
+          <t>-3,6; 0,47</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,91%</t>
+          <t>-31,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>-4,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,09%</t>
+          <t>-21,82%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 12,53</t>
+          <t>-57,27; 14,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,36; 60,1</t>
+          <t>-43,76; 58,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 9,01</t>
+          <t>-45,47; 10,44</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; -0,11</t>
+          <t>-3,28; -0,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,93</t>
+          <t>-0,75; 1,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,65</t>
+          <t>-1,54; 0,45</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>-22,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-7,94%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -1,53</t>
+          <t>-41,28; -5,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 41,4</t>
+          <t>-12,64; 36,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 10,88</t>
+          <t>-23,2; 7,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,72</t>
+          <t>0,32; 4,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,78</t>
+          <t>-1,28; 2,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,07</t>
+          <t>-0,8; 4,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,4</t>
+          <t>0,43; 4,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,74</t>
+          <t>-0,83; 3,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,69</t>
+          <t>2,37; 6,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,94</t>
+          <t>0,94; 3,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,67</t>
+          <t>-0,53; 2,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,84</t>
+          <t>1,85; 4,95</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 101,65</t>
+          <t>3,8; 103,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 64,08</t>
+          <t>-20,57; 65,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 90,37</t>
+          <t>-11,72; 91,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 86,94</t>
+          <t>5,26; 82,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 71,64</t>
+          <t>-12,75; 71,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,3; 128,39</t>
+          <t>33,6; 128,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,55; 78,02</t>
+          <t>14,06; 76,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 51,11</t>
+          <t>-8,36; 50,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,35; 93,41</t>
+          <t>27,48; 95,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,56</t>
+          <t>-1,31; 2,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -1,19</t>
+          <t>-4,57; -0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -1,09</t>
+          <t>-5,25; -0,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,61</t>
+          <t>0,44; 3,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,16</t>
+          <t>-1,73; 1,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,38</t>
+          <t>-1,77; 1,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 2,69</t>
+          <t>-0,02; 2,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; -0,52</t>
+          <t>-2,73; -0,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; -0,17</t>
+          <t>-2,93; -0,27</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 33,07</t>
+          <t>-13,42; 34,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,34; -15,62</t>
+          <t>-47,55; -12,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -13,87</t>
+          <t>-55,32; -13,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 92,72</t>
+          <t>6,71; 96,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 29,75</t>
+          <t>-32,56; 30,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 35,95</t>
+          <t>-32,52; 35,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 45,39</t>
+          <t>-0,44; 44,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,9; -7,64</t>
+          <t>-37,77; -7,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,98; -3,93</t>
+          <t>-40,11; -4,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,05</t>
+          <t>-5,29; 1,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 1,21</t>
+          <t>-5,0; 1,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,81</t>
+          <t>-5,12; 0,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,66</t>
+          <t>-1,84; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,83</t>
+          <t>-2,41; 3,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,0</t>
+          <t>-2,93; 1,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,81</t>
+          <t>-2,53; 1,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,38</t>
+          <t>-2,71; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,47</t>
+          <t>-3,43; 0,71</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,21; 19,34</t>
+          <t>-55,85; 21,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 23,46</t>
+          <t>-54,64; 27,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,27; 14,6</t>
+          <t>-57,55; 19,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 145,22</t>
+          <t>-31,5; 122,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 106,03</t>
+          <t>-37,32; 93,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 58,41</t>
+          <t>-42,87; 52,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 37,65</t>
+          <t>-34,31; 39,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 27,63</t>
+          <t>-36,59; 28,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 10,44</t>
+          <t>-45,12; 14,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,4</t>
+          <t>-0,27; 2,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; -0,26</t>
+          <t>-2,73; -0,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; -0,37</t>
+          <t>-3,31; -0,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,11</t>
+          <t>0,92; 3,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,31</t>
+          <t>-0,9; 1,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,77</t>
+          <t>-0,76; 1,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,53</t>
+          <t>0,62; 2,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,23</t>
+          <t>-1,5; 0,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,45</t>
+          <t>-1,4; 0,49</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 36,35</t>
+          <t>-3,52; 35,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,21; -3,65</t>
+          <t>-33,78; -4,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,28; -5,37</t>
+          <t>-41,97; -4,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,84; 66,57</t>
+          <t>15,7; 72,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 26,99</t>
+          <t>-15,51; 31,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 36,28</t>
+          <t>-12,25; 38,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,83; 42,88</t>
+          <t>9,26; 42,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 4,24</t>
+          <t>-22,32; 3,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 7,55</t>
+          <t>-21,5; 8,17</t>
         </is>
       </c>
     </row>
